--- a/Contenido.xlsx
+++ b/Contenido.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Contenido</t>
   </si>
@@ -29,55 +29,58 @@
     <t>1. Introducción a las barras</t>
   </si>
   <si>
-    <t>1.1 Fuerzas desarrolladas en los elementos estructurales</t>
+    <t>1.1 Definción de un elemento tipo barra</t>
   </si>
   <si>
     <t>Rusell C. Hibeler – Enginering Mechanic: Stathics</t>
   </si>
   <si>
-    <t>1 y 6</t>
+    <t>1.2. Fuerzas desarrolladas en las barras</t>
+  </si>
+  <si>
+    <t>Rusell C. Hibeler – Structural Analysis</t>
+  </si>
+  <si>
+    <t>5, 6 y 7</t>
   </si>
   <si>
     <t>1.2. Conceptos de esfuerzo y deformación</t>
   </si>
   <si>
-    <t>Rusell C. Hibeler – Structural Analysis</t>
-  </si>
-  <si>
-    <t>5, 6 y 7</t>
+    <t>James M. Gere; Barry J. Goodno - Mechanics of materials</t>
+  </si>
+  <si>
+    <t>1, 2, 3 y 4</t>
   </si>
   <si>
     <t>1.3. Propiedades mecánicas de los materiales</t>
   </si>
   <si>
-    <t>James M. Gere; Barry J. Goodno - Mechanics of materials</t>
+    <t>A. Ghail; A. M. Neville - Structural Analysis</t>
+  </si>
+  <si>
+    <t>6, 7 y 8</t>
+  </si>
+  <si>
+    <t>2. Axial</t>
+  </si>
+  <si>
+    <t>2.1. Cargas y esfuerzos normales</t>
+  </si>
+  <si>
+    <t>Jorge E. Hurtado - Análisis matricial de estructuras</t>
+  </si>
+  <si>
+    <t>2.2. Deformaciones, cambios de longitud</t>
+  </si>
+  <si>
+    <t>Diego A. Álvarez- Notas del curso: Mecánica de Sólidos</t>
   </si>
   <si>
     <t>2, 3 y 4</t>
   </si>
   <si>
-    <t>2. Axial</t>
-  </si>
-  <si>
-    <t>2.1. Cargas y esfuerzos normales</t>
-  </si>
-  <si>
-    <t>A. Ghail; A. M. Neville - Structural Analysis</t>
-  </si>
-  <si>
-    <t>6, 7 y 8</t>
-  </si>
-  <si>
-    <t>2.2. Deformaciones, cambios de longitud</t>
-  </si>
-  <si>
-    <t>Jorge E. Hurtado - Análisis matricial de estructuras</t>
-  </si>
-  <si>
     <t>2.3. Esfuerzos térmicos</t>
-  </si>
-  <si>
-    <t>Diego A. Álvarez- Notas del curso: Mecánica de Sólidos</t>
   </si>
   <si>
     <t>2.4. Pandeo: radio de giro, longitud equivalente, carga crítica</t>
@@ -413,10 +416,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C1:H34"/>
+  <dimension ref="C1:H35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -456,55 +459,55 @@
       <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="8" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="5"/>
       <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="5"/>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="5"/>
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="7" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="11"/>
-      <c r="D7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H7" s="8" t="n">
         <v>8</v>
@@ -513,13 +516,13 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="11"/>
       <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -535,28 +538,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="5"/>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="5"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="5"/>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="14" t="s">
         <v>27</v>
       </c>
     </row>
@@ -586,20 +589,20 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="5"/>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="9" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="11"/>
       <c r="D21" s="9" t="s">
         <v>35</v>
       </c>
@@ -623,84 +626,90 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="6" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="5"/>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="16" t="s">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="5"/>
+      <c r="D27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="14" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C28" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="16"/>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="16"/>
+      <c r="D29" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="17" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="5"/>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="5"/>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C32" s="20" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="5"/>
+      <c r="D32" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="9" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C33" s="20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="20"/>
       <c r="D33" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="20"/>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="20"/>
+      <c r="D35" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C11:C19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Contenido.xlsx
+++ b/Contenido.xlsx
@@ -65,7 +65,7 @@
     <t>2. Axial</t>
   </si>
   <si>
-    <t>2.1. Cargas y esfuerzos normales</t>
+    <t>2.1. Cargas y esfuerzos axiales</t>
   </si>
   <si>
     <t>Jorge E. Hurtado - Análisis matricial de estructuras</t>
@@ -167,7 +167,7 @@
     <t>7.3. Lineas de influencia para el cortante y el momento</t>
   </si>
   <si>
-    <t>8. Introducción al análisis matricial (opcional)</t>
+    <t>8. Introducción al análisis matricial</t>
   </si>
   <si>
     <t>8.1. Estructuras isoestáticas e hiperestáticas</t>
@@ -418,8 +418,8 @@
   </sheetPr>
   <dimension ref="C1:H35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/Contenido.xlsx
+++ b/Contenido.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Contenido</t>
   </si>
@@ -71,7 +71,10 @@
     <t>Jorge E. Hurtado - Análisis matricial de estructuras</t>
   </si>
   <si>
-    <t>2.2. Deformaciones, cambios de longitud</t>
+    <t>2.2. Ensayos axiales: propiedades y parámetros</t>
+  </si>
+  <si>
+    <t>2.3. Deformaciones, cambios de longitud</t>
   </si>
   <si>
     <t>Diego A. Álvarez- Notas del curso: Mecánica de Sólidos</t>
@@ -80,13 +83,16 @@
     <t>2, 3 y 4</t>
   </si>
   <si>
-    <t>2.3. Esfuerzos térmicos</t>
-  </si>
-  <si>
-    <t>2.4. Pandeo: radio de giro, longitud equivalente, carga crítica</t>
-  </si>
-  <si>
-    <t>2.5. Ensayo de tensión, compresión, y pandeo</t>
+    <t>2.4. Esfuerzos térmicos</t>
+  </si>
+  <si>
+    <t>2.5. Esfuerzos en secciones inclinadas: Falla a compresión del concreto</t>
+  </si>
+  <si>
+    <t>2.6. Pandeo: radio de giro, longitud equivalente, carga crítica</t>
+  </si>
+  <si>
+    <t>2.7. Ensayo de tensión, compresión, y pandeo</t>
   </si>
   <si>
     <t>3. Flexión y cortante</t>
@@ -216,12 +222,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -314,7 +326,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -341,6 +353,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -408,6 +424,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33FF99"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -416,10 +492,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C1:H35"/>
+  <dimension ref="C1:H37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C36" activeCellId="0" sqref="C36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -456,140 +532,152 @@
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="E3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="n">
+      <c r="H3" s="9" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="5"/>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="7"/>
+      <c r="G4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="5"/>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="7"/>
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="5"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="7"/>
+      <c r="G6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="E7" s="7"/>
+      <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="9" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="11"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="E8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="12"/>
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="E9" s="7"/>
+      <c r="G9" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="11"/>
-      <c r="D9" s="9" t="s">
+      <c r="H9" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="11"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="11"/>
-      <c r="D11" s="9" t="s">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="12"/>
+      <c r="D11" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="12"/>
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="5"/>
-      <c r="D13" s="9" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="5"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="5"/>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="5"/>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="5"/>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5"/>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="5"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -600,116 +688,128 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="9" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="5"/>
+      <c r="D22" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="11"/>
-      <c r="D22" s="9" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="11"/>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="11"/>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="12"/>
+      <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="11"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="6" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="12"/>
+      <c r="D27" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="5"/>
-      <c r="D27" s="15" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="14" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="5"/>
+      <c r="D29" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="16"/>
-      <c r="D29" s="9" t="s">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C30" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="17" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="17"/>
+      <c r="D31" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="5"/>
-      <c r="D31" s="18" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="5"/>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="20" t="s">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="5"/>
+      <c r="D33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="9" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="5"/>
+      <c r="D34" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="20"/>
-      <c r="D34" s="9" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C35" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="20"/>
       <c r="D35" s="10" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="21"/>
+      <c r="D36" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="21"/>
+      <c r="D37" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C20"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="C23:C27"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Contenido.xlsx
+++ b/Contenido.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="C1:H37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -642,6 +642,7 @@
       <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="5" t="s">

--- a/Contenido.xlsx
+++ b/Contenido.xlsx
@@ -98,28 +98,28 @@
     <t>3. Flexión y cortante</t>
   </si>
   <si>
-    <t>3.1. Flexión pura en elementos</t>
-  </si>
-  <si>
-    <t>3.2. Fuerza cortante</t>
-  </si>
-  <si>
-    <t>3.3. Ecuación diferencial de una viga, relación entre el cortante y el momento</t>
-  </si>
-  <si>
-    <t>3.4. Flexión biaxial</t>
-  </si>
-  <si>
-    <t>3.5. Deflexiones en vigas</t>
-  </si>
-  <si>
-    <t>3.6. Vigas de forma no rectangulares y vigas de 2 materiales</t>
-  </si>
-  <si>
-    <t>3.7. Vigas indeterminadas</t>
-  </si>
-  <si>
-    <t>3.8. Esfuerzos combinados: flexo-compresión (columnas)</t>
+    <t>3.1. Definición de flexión y cortante uniaxial</t>
+  </si>
+  <si>
+    <t>3.2.  Relación entre el cortante y el momento</t>
+  </si>
+  <si>
+    <t>3.3. Viga de Euler - Bernoulli</t>
+  </si>
+  <si>
+    <t>3.4. Deflexión en vigas, método de la superposición</t>
+  </si>
+  <si>
+    <t>3.5. Esfuerzos combinados: flexo – compresión</t>
+  </si>
+  <si>
+    <t>3.6. Vigas de 2 materiales</t>
+  </si>
+  <si>
+    <t>3.7. Flexión biaxial</t>
+  </si>
+  <si>
+    <t>3.8. Vigas indeterminadas</t>
   </si>
   <si>
     <t>3.9. Ensayo de corte, flexión</t>
@@ -192,7 +192,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -221,6 +221,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF66FF99"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF33FF99"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -232,7 +246,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF33FF99"/>
-        <bgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF66FF99"/>
       </patternFill>
     </fill>
   </fills>
@@ -326,7 +340,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,6 +403,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -460,7 +482,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FF66FF99"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -495,7 +517,7 @@
   <dimension ref="C1:H37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -651,30 +673,35 @@
       <c r="D14" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="5"/>
       <c r="D15" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="5"/>
       <c r="D16" s="15" t="s">
         <v>29</v>
       </c>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="5"/>
       <c r="D17" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="5"/>
       <c r="D18" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="5"/>
@@ -742,12 +769,12 @@
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="5"/>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -755,7 +782,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="17"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="10" t="s">
         <v>47</v>
       </c>
@@ -764,24 +791,24 @@
       <c r="C32" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="5"/>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="5"/>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="23" t="s">
         <v>52</v>
       </c>
       <c r="D35" s="10" t="s">
@@ -789,13 +816,13 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="21"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="21"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="11" t="s">
         <v>55</v>
       </c>

--- a/Contenido.xlsx
+++ b/Contenido.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\github\Basic-analysis-of-structures\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -134,15 +138,6 @@
     <t>4.2. Esfuerzos y deformaciones en elementos circulares</t>
   </si>
   <si>
-    <t>4.3. Relación entre E y G</t>
-  </si>
-  <si>
-    <t>4.4. Torsión NO uniforme</t>
-  </si>
-  <si>
-    <t>4.5. Torsión en tubos</t>
-  </si>
-  <si>
     <t>5. Cables</t>
   </si>
   <si>
@@ -183,16 +178,22 @@
   </si>
   <si>
     <t>8.3. Ensamblaje de la matriz elemental de rigidez</t>
+  </si>
+  <si>
+    <t>4.3. Torsión NO uniforme</t>
+  </si>
+  <si>
+    <t>4.4. Relación entre E y G</t>
+  </si>
+  <si>
+    <t>4.5. Tema pendiente, pueden ser los ensayos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -200,22 +201,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -224,13 +210,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF66FF99"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF33FF99"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -251,201 +230,169 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double"/>
-      <right style="double"/>
-      <top style="double"/>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double"/>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="double"/>
-      <bottom style="double"/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="double"/>
-      <top style="double"/>
-      <bottom style="double"/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="double"/>
-      <top style="double"/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double"/>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="double"/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="double"/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="double"/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="double"/>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="double"/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -504,345 +451,623 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H37"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1022" min="8" style="0" width="11.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="9.14285714285714"/>
+    <col min="1" max="2" width="11.5703125"/>
+    <col min="3" max="3" width="29.42578125"/>
+    <col min="4" max="4" width="51"/>
+    <col min="5" max="6" width="11.5703125"/>
+    <col min="7" max="7" width="50.140625"/>
+    <col min="8" max="1022" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.2">
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="21"/>
+      <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="9" t="n">
+      <c r="H3" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="5"/>
-      <c r="D4" s="10" t="s">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="18"/>
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="5"/>
+      <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="5"/>
-      <c r="D5" s="10" t="s">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="18"/>
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="5"/>
-      <c r="D6" s="11" t="s">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C6" s="18"/>
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="5"/>
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="G7" s="8" t="s">
+      <c r="E7" s="5"/>
+      <c r="G7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="12"/>
-      <c r="D8" s="10" t="s">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C8" s="22"/>
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="12"/>
-      <c r="D9" s="10" t="s">
+      <c r="E8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="22"/>
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="G9" s="13" t="s">
+      <c r="E9" s="5"/>
+      <c r="G9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="12"/>
-      <c r="D10" s="10" t="s">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="22"/>
+      <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="12"/>
-      <c r="D11" s="15" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="3:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C11" s="22"/>
+      <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="12"/>
-      <c r="D12" s="10" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="22"/>
+      <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="12"/>
-      <c r="D13" s="10" t="s">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C13" s="22"/>
+      <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="5" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="5"/>
-      <c r="D15" s="10" t="s">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="18"/>
+      <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="5"/>
-      <c r="D16" s="15" t="s">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C16" s="18"/>
+      <c r="D16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="5"/>
-      <c r="D17" s="10" t="s">
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="18"/>
+      <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="5"/>
-      <c r="D18" s="10" t="s">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="18"/>
+      <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="5"/>
-      <c r="D19" s="10" t="s">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="18"/>
+      <c r="D19" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="5"/>
-      <c r="D20" s="10" t="s">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="18"/>
+      <c r="D20" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="5"/>
-      <c r="D21" s="10" t="s">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="18"/>
+      <c r="D21" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="5"/>
-      <c r="D22" s="11" t="s">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="18"/>
+      <c r="D22" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="12" t="s">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="12"/>
-      <c r="D24" s="10" t="s">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="22"/>
+      <c r="D24" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="12"/>
-      <c r="D25" s="10" t="s">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="22"/>
+      <c r="D25" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="22"/>
+      <c r="D26" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="22"/>
+      <c r="D27" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="12"/>
-      <c r="D26" s="10" t="s">
+      <c r="D28" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="12"/>
-      <c r="D27" s="10" t="s">
+    <row r="29" spans="3:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C29" s="18"/>
+      <c r="D29" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="5" t="s">
+    <row r="30" spans="3:5" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D30" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="5"/>
-      <c r="D29" s="18" t="s">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="19"/>
+      <c r="D31" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C30" s="19" t="s">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="19"/>
-      <c r="D31" s="10" t="s">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="18"/>
+      <c r="D33" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="5" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="18"/>
+      <c r="D34" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="20" t="s">
+    </row>
+    <row r="35" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="5"/>
-      <c r="D33" s="21" t="s">
+      <c r="D35" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="5"/>
-      <c r="D34" s="22" t="s">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="20"/>
+      <c r="D36" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C35" s="23" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="20"/>
+      <c r="D37" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="23"/>
-      <c r="D36" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="23"/>
-      <c r="D37" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C35:C37"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="C23:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/Contenido.xlsx
+++ b/Contenido.xlsx
@@ -193,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -210,6 +210,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF66FF99"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -331,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,6 +394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,7 +746,7 @@
   <dimension ref="C1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -972,6 +980,7 @@
       <c r="D25" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" s="22"/>

--- a/Contenido.xlsx
+++ b/Contenido.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Contenido</t>
   </si>
@@ -183,10 +183,10 @@
     <t>4.3. Torsión NO uniforme</t>
   </si>
   <si>
-    <t>4.4. Relación entre E y G</t>
-  </si>
-  <si>
-    <t>4.5. Tema pendiente, pueden ser los ensayos</t>
+    <t>4.5. Relación entre E y G</t>
+  </si>
+  <si>
+    <t>4.4. Barras sometidas a cortante puro</t>
   </si>
 </sst>
 </file>
@@ -379,6 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,7 +395,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H37"/>
+  <dimension ref="C1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -764,10 +764,10 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -776,7 +776,7 @@
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -791,7 +791,7 @@
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
@@ -804,7 +804,7 @@
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
@@ -817,7 +817,7 @@
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="18"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
@@ -830,7 +830,7 @@
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -845,7 +845,7 @@
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="22"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="22"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
@@ -867,35 +867,35 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="22"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="3:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C11" s="22"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="22"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="22"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -904,63 +904,63 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="18"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="18"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="18"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="18"/>
+      <c r="C21" s="19"/>
       <c r="D21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="18"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -969,110 +969,116 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="22"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="22"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="22"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="23"/>
+      <c r="D27" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="22"/>
-      <c r="D27" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="3:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C29" s="18"/>
-      <c r="D29" s="14" t="s">
+    <row r="30" spans="3:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C30" s="19"/>
+      <c r="D30" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="3:5" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="19" t="s">
+    <row r="31" spans="3:5" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="19"/>
-      <c r="D31" s="8" t="s">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="20"/>
+      <c r="D32" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="18" t="s">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="18"/>
-      <c r="D33" s="16" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="19"/>
+      <c r="D34" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="18"/>
-      <c r="D34" s="17" t="s">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="19"/>
+      <c r="D35" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="20" t="s">
+    <row r="36" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="20"/>
-      <c r="D36" s="8" t="s">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C37" s="21"/>
+      <c r="D37" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="20"/>
-      <c r="D37" s="9" t="s">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C38" s="21"/>
+      <c r="D38" s="9" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="C14:C22"/>
-    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C23:C28"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Contenido.xlsx
+++ b/Contenido.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Contenido</t>
   </si>
@@ -138,48 +138,6 @@
     <t>4.2. Esfuerzos y deformaciones en elementos circulares</t>
   </si>
   <si>
-    <t>5. Cables</t>
-  </si>
-  <si>
-    <t>5.1. Definición de un cable</t>
-  </si>
-  <si>
-    <t>5.2. Particularizaciones de una barra: fuerzas actuantes en un cable</t>
-  </si>
-  <si>
-    <t>6. Métodos enegéticos para el cálculo de las deformaciones</t>
-  </si>
-  <si>
-    <t>6.1. Conceptos de trabajo real, trabajo virtual, trabajo interno de deformación</t>
-  </si>
-  <si>
-    <t>6.2. Teoremas de Castigliano, Maxwell, Betti</t>
-  </si>
-  <si>
-    <t>7. Líneas de influencia</t>
-  </si>
-  <si>
-    <t>7.1. Cargas móviles</t>
-  </si>
-  <si>
-    <t>7.2. Principio de Müller – Breslau</t>
-  </si>
-  <si>
-    <t>7.3. Lineas de influencia para el cortante y el momento</t>
-  </si>
-  <si>
-    <t>8. Introducción al análisis matricial</t>
-  </si>
-  <si>
-    <t>8.1. Estructuras isoestáticas e hiperestáticas</t>
-  </si>
-  <si>
-    <t>8.2. Coeficientes de rigidez</t>
-  </si>
-  <si>
-    <t>8.3. Ensamblaje de la matriz elemental de rigidez</t>
-  </si>
-  <si>
     <t>4.3. Torsión NO uniforme</t>
   </si>
   <si>
@@ -187,6 +145,72 @@
   </si>
   <si>
     <t>4.4. Barras sometidas a cortante puro</t>
+  </si>
+  <si>
+    <t>4.6. Ensayos de torsión</t>
+  </si>
+  <si>
+    <t>6. Cables y arcos</t>
+  </si>
+  <si>
+    <t>7. Métodos enegéticos para el cálculo de las deformaciones</t>
+  </si>
+  <si>
+    <t>8. Líneas de influencia</t>
+  </si>
+  <si>
+    <t>9. Introducción al análisis matricial</t>
+  </si>
+  <si>
+    <t>6.1. Definición de un cable</t>
+  </si>
+  <si>
+    <t>6.2. Cables sujetos a cargas puntuales</t>
+  </si>
+  <si>
+    <t>6.3. Cables bajo la acción de cargas distribuidas</t>
+  </si>
+  <si>
+    <t>6.4. Arcos</t>
+  </si>
+  <si>
+    <t>6.5. Arcos tri-articulados</t>
+  </si>
+  <si>
+    <t>7.1. Conceptos de trabajo real, trabajo virtual, trabajo interno de deformación</t>
+  </si>
+  <si>
+    <t>7.2. Teoremas de Castigliano, Maxwell, Betti</t>
+  </si>
+  <si>
+    <t>8.1. Cargas móviles</t>
+  </si>
+  <si>
+    <t>8.2. Principio de Müller – Breslau</t>
+  </si>
+  <si>
+    <t>8.3. Lineas de influencia para el cortante y el momento</t>
+  </si>
+  <si>
+    <t>9.1. Estructuras isoestáticas e hiperestáticas</t>
+  </si>
+  <si>
+    <t>9.2. Coeficientes de rigidez</t>
+  </si>
+  <si>
+    <t>9.3. Ensamblaje de la matriz elemental de rigidez</t>
+  </si>
+  <si>
+    <t>5. Estructuras, Fuerzas y flujo de cargas</t>
+  </si>
+  <si>
+    <t>5.1 Estructuras</t>
+  </si>
+  <si>
+    <t>5.2. Fuerzas</t>
+  </si>
+  <si>
+    <t>5.3 Flujo de cargas</t>
   </si>
 </sst>
 </file>
@@ -338,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -380,6 +404,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,6 +421,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H38"/>
+  <dimension ref="C1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -764,10 +794,10 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="23"/>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
@@ -776,7 +806,7 @@
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -791,7 +821,7 @@
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="19"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
@@ -804,7 +834,7 @@
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C5" s="19"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
@@ -817,7 +847,7 @@
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C6" s="19"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
@@ -829,8 +859,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="23" t="s">
+    <row r="7" spans="3:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -844,58 +874,56 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="23"/>
+    <row r="8" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="24"/>
       <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="23"/>
+      <c r="G8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="24"/>
       <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="G9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="3:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -904,63 +932,63 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="19"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C16" s="19"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="13"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="19"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="19"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="19"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="19"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="19"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="19"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="13"/>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -969,116 +997,167 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="23"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="23"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="18"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="24"/>
+      <c r="D26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="18"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" s="24"/>
+      <c r="D27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="18"/>
+    </row>
+    <row r="28" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="24"/>
+      <c r="D28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="18"/>
+    </row>
+    <row r="29" spans="3:5" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="3:5" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="25"/>
+      <c r="D30" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="25"/>
+      <c r="D31" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="20"/>
+      <c r="D33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="20"/>
+      <c r="D34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="3:5" ht="23.85" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="20"/>
+      <c r="D35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="20"/>
+      <c r="D36" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="3:5" ht="26.25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="21"/>
+      <c r="D38" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="23"/>
-      <c r="D26" s="8" t="s">
+    </row>
+    <row r="39" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="20"/>
+      <c r="D40" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C27" s="23"/>
-      <c r="D27" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="23"/>
-      <c r="D28" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C30" s="19"/>
-      <c r="D30" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="20"/>
-      <c r="D32" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="15" t="s">
+    <row r="41" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="20"/>
+      <c r="D41" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="19"/>
-      <c r="D34" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="19"/>
-      <c r="D35" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C37" s="21"/>
-      <c r="D37" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C38" s="21"/>
-      <c r="D38" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
+      <c r="D42" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="22"/>
+      <c r="D43" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="22"/>
+      <c r="D44" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
+  <mergeCells count="10">
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C13"/>
     <mergeCell ref="C14:C22"/>
     <mergeCell ref="C23:C28"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Contenido.xlsx
+++ b/Contenido.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Contenido</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>5.3 Flujo de cargas</t>
+  </si>
+  <si>
+    <t>9.4. Fuerzas nodales equivalentes</t>
+  </si>
+  <si>
+    <t>9.5. Solución del sistema algebraico</t>
   </si>
 </sst>
 </file>
@@ -773,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H45"/>
+  <dimension ref="C1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1132,26 +1138,43 @@
       <c r="D42" s="8" t="s">
         <v>57</v>
       </c>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C43" s="22"/>
       <c r="D43" s="8" t="s">
         <v>58</v>
       </c>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="22"/>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="22"/>
+      <c r="D45" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="22"/>
+      <c r="D46" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="3:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C42:C46"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:C6"/>
     <mergeCell ref="C7:C13"/>

--- a/Contenido.xlsx
+++ b/Contenido.xlsx
@@ -177,12 +177,6 @@
     <t>6.5. Arcos tri-articulados</t>
   </si>
   <si>
-    <t>7.1. Conceptos de trabajo real, trabajo virtual, trabajo interno de deformación</t>
-  </si>
-  <si>
-    <t>7.2. Teoremas de Castigliano, Maxwell, Betti</t>
-  </si>
-  <si>
     <t>8.1. Cargas móviles</t>
   </si>
   <si>
@@ -217,6 +211,12 @@
   </si>
   <si>
     <t>9.5. Solución del sistema algebraico</t>
+  </si>
+  <si>
+    <t>7.1. Conceptos de trabajo externo, trabajo virtual, energía interna de deformación</t>
+  </si>
+  <si>
+    <t>7.2. Teorema de Castigliano</t>
   </si>
 </sst>
 </file>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1039,24 +1039,24 @@
     </row>
     <row r="29" spans="3:5" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E29" s="5"/>
     </row>
     <row r="30" spans="3:5" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="25"/>
       <c r="D30" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" s="25"/>
       <c r="D31" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E31" s="5"/>
     </row>
@@ -1102,33 +1102,35 @@
         <v>44</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>52</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="3:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C38" s="21"/>
       <c r="D38" s="8" t="s">
-        <v>53</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C39" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="3:5" ht="12.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C40" s="20"/>
       <c r="D40" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C41" s="20"/>
       <c r="D41" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1136,35 +1138,35 @@
         <v>46</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" s="5"/>
     </row>
     <row r="43" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C43" s="22"/>
       <c r="D43" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C44" s="22"/>
       <c r="D44" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C45" s="22"/>
       <c r="D45" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="3:5" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C46" s="22"/>
       <c r="D46" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E46" s="5"/>
     </row>
